--- a/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-immunization.xlsx
+++ b/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-20T09:30:38-04:00</t>
+    <t>2025-03-28T22:48:43+11:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -769,7 +769,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-imm-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}</t>
+uds-plus-imm-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-imm-1a:All dateTime data elements should have valid year &gt; 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-imm-1b:All dateTime data elements should have valid year &lt; 2030 {$this is DateTime implies $this.toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -797,7 +797,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-iimm-2:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}</t>
+uds-plus-imm-2:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-imm-2a:All dateTime data elements should have valid year &gt; 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-imm-2b:All dateTime data elements should have valid year &lt; 2030 {$this is DateTime implies $this.toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>.participation[typeCode=AUT].time</t>
@@ -931,7 +931,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-iimm-3:All date data elements should be truncated to a year only for de-identified resources. {$this is date implies $this.toString().length() = 4}</t>
+uds-plus-imm-3:All date data elements should be truncated to a year only for de-identified resources. {$this is date implies $this.toString().length() = 4}uds-plus-imm-3a:All dateTime data elements should have valid year &gt; 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-imm-3b:All dateTime data elements should have valid year &lt; 2050 {$this is DateTime implies $this.toString() &lt;= '2050'}</t>
   </si>
   <si>
     <t>RXA-16</t>
@@ -1324,7 +1324,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-iimm-4:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is dateTime implies $this.toString().length() = 4}</t>
+uds-plus-imm-4:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is dateTime implies $this.toString().length() = 4}uds-plus-imm-4a:All dateTime data elements should have valid year &gt; 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-imm-4b:All dateTime data elements should have valid year &lt; 2030 {$this is DateTime implies $this.toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
